--- a/check1.xlsx
+++ b/check1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X26"/>
+  <dimension ref="A1:X22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,77 +558,77 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>9950</t>
+          <t>8383</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15.15</t>
+          <t>45.65</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>33</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>25050.0</t>
+          <t>14571.0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>16.65</t>
+          <t>45.9</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>9.9</t>
+          <t>-0.33</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>9.90</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>萬國通</t>
+          <t>千附</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>塑膠工業</t>
+          <t>其他電子業</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -638,84 +638,84 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>8.86</t>
+          <t>31.25</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>6.53</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>18.49</t>
+          <t>15.09</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>13.96</t>
+          <t>65.14</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>2264</t>
+          <t>4840</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>行李箱92.29%、其他7.71% (2023年)</t>
+          <t>航太及光電半導體51.37%、管路及系統整合工程32.50%、管配件9.05%、製鞋機台6.82%、其他0.26% (2023年)</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>萬國通-塑膠工業-上櫃</t>
+          <t>千附-其他電子業-上櫃</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>9802</t>
+          <t>8046</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>-3.03</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>118.5</t>
+          <t>129.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-65.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>55.14</t>
+          <t>12.41</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>26</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -725,32 +725,32 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>1117632601.0</t>
+          <t>1232732220.0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>121.0</t>
+          <t>135.5</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>-2.52</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>鈺齊-KY</t>
+          <t>南電</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>運動休閒</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -760,84 +760,84 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>68.36</t>
+          <t>69.74</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>18.91</t>
+          <t>14.23</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>24.50</t>
+          <t>90.67</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>25.44</t>
+          <t>31.47</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>22109</t>
+          <t>78509</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>鞋99.51%、其他0.49% (2023年)</t>
+          <t>印刷電路板(PCB)98.39%、其他1.61% (2023年)</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>鈺齊-KY-運動休閒-上市</t>
+          <t>南電-電子零組件業-上市</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>8905</t>
+          <t>6928</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>9.9</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>31.25</t>
+          <t>79.3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>122.71</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>387</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>130</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -847,119 +847,119 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3273.0</t>
+          <t>883312154.0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>31.35</t>
+          <t>74.1</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>-4.02</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>-6.56</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>裕國</t>
+          <t>攸泰科技</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>6.11</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>23.82</t>
+          <t>24.99</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>5.23</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>18.88</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>162.55</t>
+          <t>75.89</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>3518</t>
+          <t>4971</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>肉品52.49%、房屋25.85%、冷凍及冷藏庫租賃17.14%、蔬品3.66%、罐頭0.57%、其他0.28% (2023年)</t>
+          <t>工業電腦(IPC)72.08%、其他14.24%、嵌入式板卡13.68% (2023年)</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>裕國-其他-上櫃</t>
+          <t>攸泰科技-電腦及週邊設備業-上市</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>8080</t>
+          <t>6895</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-0.39</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>38.5</t>
+          <t>197.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>13.96</t>
+          <t>10.13</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>63</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -969,32 +969,32 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>12344.0</t>
+          <t>145850.0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>202.0</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-1.3</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>-1.30</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>泰霖</t>
+          <t>宏碩系統</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>建材營造</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1004,64 +1004,64 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>7.85</t>
+          <t>28.68</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>84.33</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>73.46</t>
+          <t>105.68</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>1908</t>
+          <t>6240</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>泥漿經銷60.37%、土方工程39.63% (2023年)</t>
+          <t>半導體製程設備零組件46.80%、真空微波管45.75%、其他7.45% (2023年)</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>泰霖-建材營造-上櫃</t>
+          <t>宏碩系統-半導體業-上櫃</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6669</t>
+          <t>6789</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2605.0</t>
+          <t>309.5</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1071,52 +1071,52 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>47.93</t>
+          <t>19.57</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>112</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>46</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>6503752730.0</t>
+          <t>4291941526.0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2565.0</t>
+          <t>339.5</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>-1.54</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>-1.54</t>
+          <t>9.69</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>緯穎</t>
+          <t>采鈺</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1126,358 +1126,358 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>429.92</t>
+          <t>55.20</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>526.36</t>
+          <t>8.67</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>20.86</t>
+          <t>71.54</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>75.89</t>
+          <t>47.52</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>401414</t>
+          <t>86863</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>資料中心產品99.57%、其他0.43% (2023年)</t>
+          <t>微光學元件56.44%、影像感測器41.68%、其他1.88% (2023年)</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>緯穎-電腦及週邊設備業-上市</t>
+          <t>采鈺-半導體業-上市</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6643</t>
+          <t>6689</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>-3.94</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>821.0</t>
+          <t>121.0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>103.59</t>
+          <t>208.17</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>185</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>129</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>7409921.0</t>
+          <t>1033369214.0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>802.0</t>
+          <t>115.0</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>-2.31</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>-2.31</t>
+          <t>-4.96</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>M31</t>
+          <t>伊雲谷</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>數位雲端</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>47.15</t>
+          <t>42.98</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>9.14</t>
+          <t>49.23</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>99.14</t>
+          <t>34.08</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>105.68</t>
+          <t>30.76</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>29054</t>
+          <t>6304</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>技術服務83.52%、權利金收入16.48% (2023年)</t>
+          <t>雲端服務98.85%、存儲類產品1.15% (2023年)</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>M31-半導體業-上櫃</t>
+          <t>伊雲谷-數位雲端-上市</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6215</t>
+          <t>6617</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>72.1</t>
+          <t>113.5</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>78.53</t>
+          <t>7.64</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>41</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>-1855602414.0</t>
+          <t>12885.0</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>70.8</t>
+          <t>113.0</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>-1.8</t>
+          <t>-0.44</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>-1.80</t>
+          <t>-0.44</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>和椿</t>
+          <t>共信-KY</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>18.04</t>
+          <t>25.09</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>38.72</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>37.42</t>
+          <t>102.62</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>13643</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>自動化系統及零組件93.53%、安全裝置系統4.94%、其他1.53% (2023年)</t>
+          <t>PTS302 93.90%、p-TSA6.10% (2023年)</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>和椿-其他電子業-上市</t>
+          <t>共信-KY-生技醫療業-上櫃</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6183</t>
+          <t>6516</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>83.6</t>
+          <t>73.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>-65.0</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>12.17</t>
+          <t>32.24</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>236</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>22</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2331664.0</t>
+          <t>22523.0</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>83.0</t>
+          <t>73.0</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>-0.72</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>-0.72</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>關貿</t>
+          <t>勤崴國際</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1487,89 +1487,89 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>17.35</t>
+          <t>18.46</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>24.57</t>
+          <t>57.54</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>22.21</t>
+          <t>26.87</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>12015</t>
+          <t>3825</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>專案承包53.01%、電子資料交換服務(EDI)45.28%、設備設施管理0.87%、租金收入0.83% (2023年)</t>
+          <t>導航軟體與車載系統35.12%、電商服務及其他29.42%、自駕營運19.18%、電子地圖10.59%、系統整合服務5.69% (2023年)</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>關貿-資訊服務業-上市</t>
+          <t>勤崴國際-資訊服務業-上櫃</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6103</t>
+          <t>6491</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>5.81</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>52.9</t>
+          <t>384.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>-50.0</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>21.6</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>186</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>-30</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1579,221 +1579,221 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>226.0</t>
+          <t>516936996.0</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>54.7</t>
+          <t>377.0</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>-0.4</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>-1.82</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>合邦</t>
+          <t>晶碩</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>9.45</t>
+          <t>135.45</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>21.27</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>160.65</t>
+          <t>14.46</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>105.68</t>
+          <t>30.69</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>678</t>
+          <t>28860</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>半導體材料81.57%、光碟系統晶片17.25%、勞務1.17% (2023年)</t>
+          <t>隱形眼鏡99.55%、其他0.45% (2023年)</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>合邦-半導體業-上櫃</t>
+          <t>晶碩-生技醫療業-上市</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4540</t>
+          <t>6245</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>9.65</t>
+          <t>-4.49</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>55.9</t>
+          <t>98.7</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>163.21</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>943</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>-1211269.0</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>28.78</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>1843024189.0</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>57.8</t>
-        </is>
-      </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>-1.96</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>全球傳動</t>
+          <t>立端</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>電機機械</t>
+          <t>通信網路業</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>30.77</t>
+          <t>40.01</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>14.03</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15.49</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>73.97</t>
+          <t>108.27</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>3892</t>
+          <t>12909</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>滾珠螺桿64.74%、線性滑軌28.70%、滾珠花鍵5.38%、其他1.19% (2023年)</t>
+          <t>網路通訊設備(NC)91.85%、IEC7.62%、其他, 原材料及其他商品買賣0.52% (2023年)</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>全球傳動-電機機械-上市</t>
+          <t>立端-通信網路業-上櫃</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4503</t>
+          <t>5469</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>55.6</t>
+          <t>54.3</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1803,17 +1803,17 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>7.65</t>
+          <t>14.01</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>236</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>35</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1823,119 +1823,119 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>165222.0</t>
+          <t>440258214.0</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>55.1</t>
+          <t>53.1</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>-0.9</t>
+          <t>-1.67</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>-0.90</t>
+          <t>-2.21</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>金雨</t>
+          <t>瀚宇博</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>電機機械</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>16.16</t>
+          <t>66.03</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>24.43</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10.16</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>48.6</t>
+          <t>31.47</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>3336</t>
+          <t>25329</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>智慧建築33.69%、代工產品28.76%、智慧零售24.87%、其他11.32%、自動販賣機1.35% (2023年)</t>
+          <t>印刷電路板(PCB)84.11%、EMS15.89% (2023年)</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>金雨-電機機械-上櫃</t>
+          <t>瀚宇博-電子零組件業-上市</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3689</t>
+          <t>3664</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>105.0</t>
+          <t>28.9</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>22.55</t>
+          <t>34.38</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>299</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1945,32 +1945,32 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>74637.0</t>
+          <t>53868.0</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>103.0</t>
+          <t>29.0</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>-1.9</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>-1.90</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>湧德</t>
+          <t>安瑞-KY</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>通信網路業</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1980,186 +1980,186 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>46.63</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>18.2</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>18.39</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>64.63</t>
+          <t>108.27</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>7129</t>
+          <t>1356</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>整合型訊號連接器-網通產品60.75%、整合型訊號連接器-其他14.05%、整合型訊號連接器-資訊產品12.98%、整合型訊號連接器-消費性電子12.22% (2023年)</t>
+          <t>服務收入34.48%、虛擬私有網路21.68%、應用交付控制器15.95%、N-HCI/NFP15.31%、ASF8.59%、WOC3.76%、ZTNA0.23% (2023年)</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>湧德-電子零組件業-上櫃</t>
+          <t>安瑞-KY-通信網路業-上櫃</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3664</t>
+          <t>2645</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>23.6</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>-65.0</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>32.74</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>306</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>-15</t>
+          <t>44</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>3181.0</t>
+          <t>524439169.0</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>23.5</t>
+          <t>96.6</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>-0.42</t>
+          <t>-1.23</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>-0.42</t>
+          <t>-2.42</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>安瑞-KY</t>
+          <t>長榮航太</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>通信網路業</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>33.96</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>10.75</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>2,365.00</t>
+          <t>20.4</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>108.27</t>
+          <t>21.23</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>1356</t>
+          <t>34386</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>服務收入34.48%、虛擬私有網路21.68%、應用交付控制器15.95%、N-HCI/NFP15.31%、ASF8.59%、WOC3.76%、ZTNA0.23% (2023年)</t>
+          <t>航空器維修77.03%、航空器零組件22.97% (2023年)</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>安瑞-KY-通信網路業-上櫃</t>
+          <t>長榮航太-航運業-上市</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3661</t>
+          <t>2613</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>9.43</t>
+          <t>-1.81</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3320.0</t>
+          <t>34.75</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -2169,52 +2169,52 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>45.16</t>
+          <t>7.83</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>42</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>-41</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>52133009700.0</t>
+          <t>72474686.0</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>3340.0</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>-1.29</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>-1.29</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>世芯-KY</t>
+          <t>中櫃</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -2224,84 +2224,84 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>441.29</t>
+          <t>23.65</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>185.58</t>
+          <t>6.19</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>32.14</t>
+          <t>28.47</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>47.52</t>
+          <t>21.23</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>180442</t>
+          <t>5113</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>ASIC及晶圓產品78.02%、委託設計(NRE)21.81%、其他0.17% (2023年)</t>
+          <t>貨櫃集散站作業100.00% (2023年)</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>世芯-KY-半導體業-上市</t>
+          <t>中櫃-航運業-上市</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3169</t>
+          <t>2543</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-2.7</t>
+          <t>5.53</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>111.5</t>
+          <t>78.0</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-65.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>8.16</t>
+          <t>23.9</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>108</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>-40</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -2311,154 +2311,154 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>-272243.0</t>
+          <t>1300984404.0</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>109.0</t>
+          <t>83.2</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>-2.24</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>-2.24</t>
+          <t>6.67</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>亞信</t>
+          <t>皇昌</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>建材營造</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>27.03</t>
+          <t>18.76</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>6.99</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>27.95</t>
+          <t>17.32</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>105.68</t>
+          <t>30.06</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>6173</t>
+          <t>34274</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>高速網路/輸出入控制晶片99.89%、其他0.11% (2023年)</t>
+          <t>營建工程89.52%、混凝土10.44%、租賃0.05% (2023年)</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>亞信-半導體業-上櫃</t>
+          <t>皇昌-建材營造-上市</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3045</t>
+          <t>1786</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-0.86</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>116.0</t>
+          <t>106.0</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>20.06</t>
+          <t>13.04</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>62</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>16</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>451641994.0</t>
+          <t>630875731.0</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>116.0</t>
+          <t>113.0</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>6.60</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>台灣大</t>
+          <t>科妍</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>通信網路業</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -2468,84 +2468,84 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>27.00</t>
+          <t>25.96</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>15.61</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>24.08</t>
+          <t>30.36</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>40.13</t>
+          <t>30.69</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>413282</t>
+          <t>6551</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>商品銷售68.83%、行動通訊23.85%、其他4.99%、數據通信1.77%、國際網路服務0.29%、市內網路服務0.24%、長途網路服務0.03% (2023年)</t>
+          <t>醫療器材98.27%、其他1.73% (2023年)</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>台灣大-通信網路業-上市</t>
+          <t>科妍-生技醫療業-上市</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3041</t>
+          <t>1783</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>9.72</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>40.15</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>58.16</t>
+          <t>22.09</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>755</t>
+          <t>178</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>49</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -2555,32 +2555,32 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2567485932.0</t>
+          <t>46526398.0</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>40.35</t>
+          <t>52.1</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>揚智</t>
+          <t>和康生</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -2590,84 +2590,84 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>12.02</t>
+          <t>14.97</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24.08</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>47.52</t>
+          <t>30.69</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>3243</t>
+          <t>3732</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>晶片組100.00% (2023年)</t>
+          <t>生醫產品96.72%、保養品3.28% (2023年)</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>揚智-半導體業-上市</t>
+          <t>和康生-生技醫療業-上市</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3019</t>
+          <t>1563</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>9.74</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>144.5</t>
+          <t>60.9</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>-50.0</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>80.93</t>
+          <t>27.83</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>61</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>30</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2677,32 +2677,32 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>23531328969.0</t>
+          <t>155576224.0</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>158.5</t>
+          <t>58.8</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>9.69</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>9.69</t>
+          <t>-3.45</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>亞光</t>
+          <t>巧新</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>汽車工業</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -2712,241 +2712,241 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>49.72</t>
+          <t>41.03</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>24.45</t>
+          <t>7.22</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>19.67</t>
+          <t>17.9</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>65.03</t>
+          <t>129.99</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>29879</t>
+          <t>13577</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>光學元件51.91%、影像感測元件產品19.78%、光電零組件11.82%、數位相機11.22%、光電產品5.27% (2023年)</t>
+          <t>鍛造鋁圈86.39%、其他14.85% (2023年)</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>亞光-光電業-上市</t>
+          <t>巧新-汽車工業-上市</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2937</t>
+          <t>1558</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>38.3</t>
+          <t>111.0</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>51.59</t>
+          <t>22.88</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>28</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>6549.0</t>
+          <t>44381496.0</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>113.0</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>-0.78</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>-0.78</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>集雅社</t>
+          <t>伸興</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>居家生活</t>
+          <t>電機機械</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>23.80</t>
+          <t>82.39</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>25.18</t>
+          <t>36.72</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>11.33</t>
+          <t>16.58</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>100.97</t>
+          <t>73.97</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>1413</t>
+          <t>6720</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>影音家電99.08%、其他0.92% (2023年)</t>
+          <t>縫紉機48.25%、精密金屬零件44.16%、其他6.26%、吸塵器1.34% (2023年)</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>集雅社-居家生活-上櫃</t>
+          <t>伸興-電機機械-上市</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2889</t>
+          <t>1477</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>15.2</t>
+          <t>328.5</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>19.29</t>
+          <t>26.86</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>542663033.0</t>
+          <t>1499262764.0</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>15.5</t>
+          <t>327.5</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>-0.30</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>國票金</t>
+          <t>聚陽</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>紡織纖維</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -2956,84 +2956,84 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>6.9</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>11.77</t>
+          <t>54.56</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>42.42</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>23.20</t>
+          <t>20.34</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>13.39</t>
+          <t>33.02</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>49980</t>
+          <t>82642</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>手續費及佣金50.51%、公平價值變動之金融資產與金28.57%、淨利息收益17.94%、透過其他綜合損益按公允價值3.17%、租賃1.62%、其他利息以外淨收益1.31%、兌換損益0.08% (2023年)</t>
+          <t>成衣98.03%、布料1.97% (2023年)</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>國票金-金融保險-上市</t>
+          <t>聚陽-紡織纖維-上市</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2454</t>
+          <t>1231</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1425.0</t>
+          <t>145.0</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>37.02</t>
+          <t>38.51</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>84</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>36</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -3043,32 +3043,32 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>11944002950.0</t>
+          <t>213649491.0</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>1420.0</t>
+          <t>139.5</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>-3.79</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>聯發科</t>
+          <t>聯華食</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>食品工業</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -3078,530 +3078,42 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>260.46</t>
+          <t>22.54</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>82.7</t>
+          <t>11.74</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>18.70</t>
+          <t>25.78</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>47.52</t>
+          <t>21.86</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>2034151</t>
+          <t>31202</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>多媒體晶片及手機晶片等97.85%、其他2.15% (2023年)</t>
+          <t>鮮食51.23%、休閒46.43%、其他2.34% (2023年)</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>聯發科-半導體業-上市</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2359</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2024-12-17</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>9.6</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>163.0</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>28.56</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>459</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>1833388625.0</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>160.5</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>-1.53</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>-1.53</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>所羅門</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>其他電子業</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>32.43</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>5.54</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>37.42</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>23834</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>所羅門群島54.68%、富相19.40%、上海鈺門18.31%、新門科技6.14%、盈門能源科技1.45%、美國所羅門0.02% (2023年)</t>
-        </is>
-      </c>
-      <c r="X23" t="inlineStr">
-        <is>
-          <t>所羅門-其他電子業-上市</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2330</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2024-12-17</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>-0.92</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>1075.0</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>95.0</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>22.14</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>30817487396.0</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>1085.0</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>台積電</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>半導體業</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>153.86</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>29.29</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>25.88</t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>47.52</t>
-        </is>
-      </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>26840379</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>晶圓87.08%、其他12.92% (2023年)</t>
-        </is>
-      </c>
-      <c r="X24" t="inlineStr">
-        <is>
-          <t>台積電-半導體業-上市</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2211</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2024-12-17</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>109.5</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>33.37</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>306</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>738415577.0</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>113.5</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>長榮鋼</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>鋼鐵工業</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>6.1</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>62.52</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>7.86</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>17.81</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>49.57</t>
-        </is>
-      </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>44420</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>鋼構構件72.24%、廢棄物處理及其他27.76% (2023年)</t>
-        </is>
-      </c>
-      <c r="X25" t="inlineStr">
-        <is>
-          <t>長榮鋼-鋼鐵工業-上市</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>1213</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2024-12-17</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>8.92</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>15.7</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>6.78</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>6761557.0</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>16.7</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>6.37</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>6.37</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>大飲</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>食品工業</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>21.86</t>
-        </is>
-      </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>708</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>蘋果西打97.97%、寶特580系列2.03% (2023年)</t>
-        </is>
-      </c>
-      <c r="X26" t="inlineStr">
-        <is>
-          <t>大飲-食品工業-上市</t>
+          <t>聯華食-食品工業-上市</t>
         </is>
       </c>
     </row>

--- a/check1.xlsx
+++ b/check1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X22"/>
+  <dimension ref="A1:Y28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,90 +466,95 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Trend</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>短交易量</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>遠交易量</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>量增</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Volume_Price_Change_sum</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>now_price</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>change_quote</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>diff_quote</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Type0</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Type1</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Type2</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>殖利率</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>每股淨值(元)</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>每股營收(元)</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>本益比</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
@@ -558,22 +563,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>8383</t>
+          <t>8482</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>7.88</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>45.65</t>
+          <t>108.5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -583,241 +588,251 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>99.98</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>374</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>79</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>14571.0</t>
+          <t>True</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>45.9</t>
+          <t>293106680.0</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-0.33</t>
+          <t>108.5</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>6.9</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>千附</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>商億-KY</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>居家生活</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>31.25</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>6.53</t>
+          <t>32.36</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>15.09</t>
+          <t>9.12</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>65.14</t>
+          <t>35.91</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>4840</t>
+          <t>14.9</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>航太及光電半導體51.37%、管路及系統整合工程32.50%、管配件9.05%、製鞋機台6.82%、其他0.26% (2023年)</t>
+          <t>11497</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>千附-其他電子業-上櫃</t>
+          <t>室內家具90.84%、其他9.16% (2023年)</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>商億-KY-居家生活-上市</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>8046</t>
+          <t>8464</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-3.03</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>129.0</t>
+          <t>443.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>12.41</t>
+          <t>40.42</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>6</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>1232732220.0</t>
-        </is>
-      </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>135.5</t>
+          <t>215549273.0</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-2.52</t>
+          <t>443.0</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>5.04</t>
+          <t>-0.34</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>南電</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>億豐</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
+          <t>居家生活</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>69.74</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>14.23</t>
+          <t>86.83</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>90.67</t>
+          <t>26.82</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>31.47</t>
+          <t>20.69</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>78509</t>
+          <t>14.9</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>印刷電路板(PCB)98.39%、其他1.61% (2023年)</t>
+          <t>132152</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>南電-電子零組件業-上市</t>
+          <t>窗簾95.99%、其他4.01% (2023年)</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>億豐-居家生活-上市</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6928</t>
+          <t>7703</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>9.9</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>79.3</t>
+          <t>156.5</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -827,119 +842,124 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>122.71</t>
+          <t>15.43</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>184</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>883312154.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>74.1</t>
+          <t>56875.0</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>-4.02</t>
+          <t>156.5</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>-6.56</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>攸泰科技</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>銳澤</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>其他電子業</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>24.99</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>46.79</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14.83</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>75.89</t>
+          <t>24.25</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>4971</t>
+          <t>59.72</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>工業電腦(IPC)72.08%、其他14.24%、嵌入式板卡13.68% (2023年)</t>
+          <t>5611</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>攸泰科技-電腦及週邊設備業-上市</t>
+          <t>建造合同98.68%、設備銷售1.32% (2023年)</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>銳澤-其他電子業-上櫃</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6895</t>
+          <t>6988</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>197.0</t>
+          <t>29.2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -949,119 +969,124 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>10.13</t>
+          <t>37.46</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>138</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>11</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>145850.0</t>
+          <t>True</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>202.0</t>
+          <t>10469300.0</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>29.2</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>宏碩系統</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>威力暘-創</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>汽車工業</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>28.68</t>
+          <t>29.2</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>16.85</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>84.33</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>105.68</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>6240</t>
+          <t>300.46</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>半導體製程設備零組件46.80%、真空微波管45.75%、其他7.45% (2023年)</t>
+          <t>1435</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>宏碩系統-半導體業-上櫃</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>威力暘-創-汽車工業-上市</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6789</t>
+          <t>6841</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>309.5</t>
+          <t>78.4</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1071,119 +1096,124 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>19.57</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>63</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>4291941526.0</t>
-        </is>
-      </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>339.5</t>
+          <t>214108.0</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>78.4</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>9.69</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>采鈺</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>長佳智能</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>55.20</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>8.67</t>
+          <t>19.02</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>71.54</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>47.52</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>86863</t>
+          <t>98.09</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>微光學元件56.44%、影像感測器41.68%、其他1.88% (2023年)</t>
+          <t>8207</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>采鈺-半導體業-上市</t>
+          <t>智慧醫療業務72.14%、生技27.86% (2023年)</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>長佳智能-生技醫療業-上櫃</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6689</t>
+          <t>6823</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-3.94</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>121.0</t>
+          <t>69.0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1193,119 +1223,124 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>208.17</t>
+          <t>18.91</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>354</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>67</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1033369214.0</t>
+          <t>True</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>115.0</t>
+          <t>-16065.0</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>69.0</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>-4.96</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>伊雲谷</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>數位雲端</t>
+          <t>濾能</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>42.98</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>49.23</t>
+          <t>21.87</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>34.08</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>30.76</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>6304</t>
+          <t>91.24</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>雲端服務98.85%、存儲類產品1.15% (2023年)</t>
+          <t>1483</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>伊雲谷-數位雲端-上市</t>
+          <t>AMC化學濾網及配件72.71%、其他27.29% (2023年)</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>濾能-半導體業-上櫃</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6617</t>
+          <t>6768</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>113.5</t>
+          <t>126.0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1315,485 +1350,505 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7.64</t>
+          <t>11.92</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>52</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
+          <t>-55</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>12885.0</t>
-        </is>
-      </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>113.0</t>
+          <t>-259257173.0</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>-0.44</t>
+          <t>126.0</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>-0.44</t>
+          <t>-1.95</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>共信-KY</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>志強-KY</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>運動休閒</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>25.09</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>73.06</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21.89</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>102.62</t>
+          <t>18.93</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>13643</t>
+          <t>27.19</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>PTS302 93.90%、p-TSA6.10% (2023年)</t>
+          <t>24604</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>共信-KY-生技醫療業-上櫃</t>
+          <t>運動鞋74.75%、休閒鞋24.00%、其他1.25% (2023年)</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>志強-KY-運動休閒-上市</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6516</t>
+          <t>6649</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>73.0</t>
+          <t>35.6</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-65.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>32.24</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>22523.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>73.0</t>
+          <t>3385.0</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>35.6</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>勤崴國際</t>
-        </is>
-      </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>資訊服務業</t>
+          <t>台生材</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
+          <t>生技醫療業</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>18.46</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>14.87</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>57.54</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>26.87</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>3825</t>
+          <t>98.09</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>導航軟體與車載系統35.12%、電商服務及其他29.42%、自駕營運19.18%、電子地圖10.59%、系統整合服務5.69% (2023年)</t>
+          <t>1504</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>勤崴國際-資訊服務業-上櫃</t>
+          <t>腦中風血栓負壓移除導管系統67.60%、委託開發29.12%、泡沫式人工腦膜產品2.35%、醫療器材產品試製服務0.93% (2023年)</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>台生材-生技醫療業-上櫃</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6491</t>
+          <t>6613</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>384.0</t>
+          <t>202.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-50.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>21.6</t>
+          <t>13.03</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>28</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>516936996.0</t>
+          <t>True</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>377.0</t>
+          <t>111426.0</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>-0.4</t>
+          <t>202.0</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>-1.82</t>
+          <t>-0.49</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>晶碩</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>朋億*</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>其他電子業</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>135.45</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>21.27</t>
+          <t>58.71</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>14.46</t>
+          <t>36.9</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>30.69</t>
+          <t>13.95</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>28860</t>
+          <t>59.72</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>隱形眼鏡99.55%、其他0.45% (2023年)</t>
+          <t>16901</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>晶碩-生技醫療業-上市</t>
+          <t>高科技產業製程供應系統設備62.20%、高科技產業製程供應系統設備34.63%、其他3.17% (2023年)</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>朋億*-其他電子業-上櫃</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6245</t>
+          <t>6589</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-4.49</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>98.7</t>
+          <t>81.2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>163.21</t>
+          <t>14.79</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>943</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>42</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
+          <t>-43</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>-1211269.0</t>
-        </is>
-      </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>156479.0</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>-1.96</t>
+          <t>81.2</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>立端</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>通信網路業</t>
+          <t>台康生技</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
+          <t>生技醫療業</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
-      </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>40.01</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>14.03</t>
+          <t>30.83</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>15.49</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>108.27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>12909</t>
+          <t>98.09</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>網路通訊設備(NC)91.85%、IEC7.62%、其他, 原材料及其他商品買賣0.52% (2023年)</t>
+          <t>24774</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>立端-通信網路業-上櫃</t>
+          <t>勞務59.26%、商品銷售26.91%、授權合作開發13.83% (2023年)</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>台康生技-生技醫療業-上櫃</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>5469</t>
+          <t>6237</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>-2.04</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>54.3</t>
+          <t>58.3</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1803,363 +1858,378 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>14.01</t>
+          <t>20.32</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>79</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>135</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>440258214.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>53.1</t>
+          <t>769726.0</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>-1.67</t>
+          <t>58.3</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>-2.21</t>
+          <t>-0.85</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>瀚宇博</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>驊訊</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>66.03</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>24.43</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>10.16</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>31.47</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>25329</t>
+          <t>91.24</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>印刷電路板(PCB)84.11%、EMS15.89% (2023年)</t>
+          <t>4771</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>瀚宇博-電子零組件業-上市</t>
+          <t>IC概念產品100.00% (2023年)</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>驊訊-半導體業-上櫃</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3664</t>
+          <t>5276</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>28.9</t>
+          <t>20.2</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>34.38</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>44</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>-61</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>53868.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>-1510.0</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>20.2</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>安瑞-KY</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>通信網路業</t>
+          <t>達輝-KY</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>12.79</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6.14</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>108.27</t>
+          <t>96.19</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>1356</t>
+          <t>179.68</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>服務收入34.48%、虛擬私有網路21.68%、應用交付控制器15.95%、N-HCI/NFP15.31%、ASF8.59%、WOC3.76%、ZTNA0.23% (2023年)</t>
+          <t>798</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>安瑞-KY-通信網路業-上櫃</t>
+          <t>摩托車53.31%、嬰幼童及其他產品類46.69% (2023年)</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>達輝-KY-其他-上櫃</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2645</t>
+          <t>4915</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>80.9</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-65.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>32.74</t>
+          <t>20.21</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>211</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>-12</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>524439169.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>96.6</t>
+          <t>768450694.0</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>-1.23</t>
+          <t>80.9</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>-2.42</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>長榮航太</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>致伸</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>4.9</t>
-        </is>
-      </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>33.96</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>10.75</t>
+          <t>38.96</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>20.4</t>
+          <t>34.35</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>21.23</t>
+          <t>14.58</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>34386</t>
+          <t>30.84</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>航空器維修77.03%、航空器零組件22.97% (2023年)</t>
+          <t>37539</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>長榮航太-航運業-上市</t>
+          <t>非電腦週邊產品61.21%、電腦周邊產品36.86%、服務收入1.93% (2023年)</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>致伸-電子零組件業-上市</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2613</t>
+          <t>4442</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-1.81</t>
+          <t>5.23</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>34.75</t>
+          <t>50.2</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -2169,363 +2239,378 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>7.83</t>
+          <t>26.6</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>-41</t>
+          <t>230</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
+          <t>-12</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>72474686.0</t>
-        </is>
-      </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>7028.0</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>-1.29</t>
+          <t>50.2</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>-1.29</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>中櫃</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>竣邦-KY</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>紡織纖維</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>23.65</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>6.19</t>
+          <t>20.38</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>28.47</t>
+          <t>9.33</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>21.23</t>
+          <t>20.6</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>5113</t>
+          <t>23.37</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>貨櫃集散站作業100.00% (2023年)</t>
+          <t>1417</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>中櫃-航運業-上市</t>
+          <t>平織布85.35%、針織布8.40%、其他5.18%、不織布產品1.08% (2023年)</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>竣邦-KY-紡織纖維-上櫃</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2543</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>-0.4</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>78.0</t>
+          <t>25.2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>23.9</t>
+          <t>38.3</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>-40</t>
+          <t>238</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>1300984404.0</t>
-        </is>
-      </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>83.2</t>
+          <t>137974.0</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>25.2</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>6.67</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>皇昌</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>建材營造</t>
+          <t>健亞</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>18.76</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>6.99</t>
+          <t>13.24</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>17.32</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>30.06</t>
+          <t>169.29</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>34274</t>
+          <t>98.09</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>營建工程89.52%、混凝土10.44%、租賃0.05% (2023年)</t>
+          <t>2670</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>皇昌-建材營造-上市</t>
+          <t>藥品製造98.23%、技術服務0.87%、其他0.82%、代理0.07% (2023年)</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>健亞-生技醫療業-上櫃</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1786</t>
+          <t>3713</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>106.0</t>
+          <t>22.7</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>13.04</t>
+          <t>8.58</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>363</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>630875731.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>113.0</t>
+          <t>3920.0</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>22.7</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>6.60</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>科妍</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>新晶投控</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>綠能環保</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>25.96</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>8.02</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>30.36</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>30.69</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>6551</t>
+          <t>65.88</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>醫療器材98.27%、其他1.73% (2023年)</t>
+          <t>1792</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>科妍-生技醫療業-上市</t>
+          <t>發電廠工程總承包(EPC)60.49%、太陽能電池模組23.44%、電力11.09%、其他4.98% (2023年)</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>新晶投控-綠能環保-上櫃</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1783</t>
+          <t>3454</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>-4.3</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>124.0</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -2535,585 +2620,1372 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>22.09</t>
+          <t>20.1</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>55</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>54</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>46526398.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>52.1</t>
+          <t>877549598.0</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>124.0</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>-3.12</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>和康生</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>晶睿</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>14.97</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>38.72</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>24.08</t>
+          <t>21.87</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>30.69</t>
+          <t>56.04</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>3732</t>
+          <t>61.7</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>生醫產品96.72%、保養品3.28% (2023年)</t>
+          <t>11643</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>和康生-生技醫療業-上市</t>
+          <t>網路攝影機85.22%、其他8.39%、網路影音錄影機6.39% (2023年)</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>晶睿-光電業-上市</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1563</t>
+          <t>3008</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>-1.09</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>60.9</t>
+          <t>2730.0</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-50.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>27.83</t>
+          <t>26.05</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>31</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>155576224.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>58.8</t>
+          <t>4400645730.0</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>2730.0</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>-3.45</t>
+          <t>-1.09</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>巧新</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>汽車工業</t>
+          <t>大立光</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>41.03</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>7.22</t>
+          <t>1,305.77</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>17.9</t>
+          <t>141.98</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>129.99</t>
+          <t>16.56</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>13577</t>
+          <t>61.7</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>鍛造鋁圈86.39%、其他14.85% (2023年)</t>
+          <t>367704</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>巧新-汽車工業-上市</t>
+          <t>光學元件98.89%、其他1.11% (2023年)</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>大立光-光電業-上市</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1558</t>
+          <t>3005</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>-2.1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>111.0</t>
+          <t>116.5</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>22.88</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>43</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>44381496.0</t>
-        </is>
-      </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>113.0</t>
+          <t>340599548.0</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>116.5</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>-2.1</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>伸興</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>電機機械</t>
+          <t>神基</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
+          <t>電腦及週邊設備業</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>3.76</t>
-        </is>
-      </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>82.39</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>36.72</t>
+          <t>36.80</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>16.58</t>
+          <t>14.85</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>73.97</t>
+          <t>16.93</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>6720</t>
+          <t>68.43</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>縫紉機48.25%、精密金屬零件44.16%、其他6.26%、吸塵器1.34% (2023年)</t>
+          <t>71979</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>伸興-電機機械-上市</t>
+          <t>電子元器件52.18%、機構件38.99%、航太扣件8.83% (2023年)</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>神基-電腦及週邊設備業-上市</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1477</t>
+          <t>2498</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>5.36</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>328.5</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>26.86</t>
+          <t>67.75</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>158</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>95</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>1499262764.0</t>
+          <t>True</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>327.5</t>
+          <t>3506214386.0</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>-0.46</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>-0.30</t>
+          <t>5.98</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>聚陽</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>紡織纖維</t>
+          <t>宏達電</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
+          <t>通信網路業</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>54.56</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>42.42</t>
+          <t>26.37</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>20.34</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>33.02</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>82642</t>
+          <t>39.1</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>成衣98.03%、布料1.97% (2023年)</t>
+          <t>46292</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>聚陽-紡織纖維-上市</t>
+          <t>虛擬實境及5G,智慧型手機和100.00% (2023年)</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>宏達電-通信網路業-上市</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1231</t>
+          <t>2027</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>-0.92</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>145.0</t>
+          <t>32.5</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>38.51</t>
+          <t>19.27</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>107</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
+          <t>-24</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>252309841.0</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>32.5</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>-0.31</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>大成鋼</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>鋼鐵工業</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>29.94</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>10.14</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>25.98</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>45.66</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>80939</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>鋁製品39.13%、不�袗�產品35.72%、螺絲及螺帽22.45%、窗飾及其他產品2.69% (2023年)</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>大成鋼-鋼鐵工業-上市</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-01-17</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>15.45</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>24.94</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>213649491.0</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>139.5</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>-3.79</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>聯華食</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>食品工業</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>159721932.0</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>15.45</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>燁輝</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>鋼鐵工業</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>22.54</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>11.74</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>25.78</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>21.86</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>31202</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>鮮食51.23%、休閒46.43%、其他2.34% (2023年)</t>
-        </is>
-      </c>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>聯華食-食品工業-上市</t>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>14.56</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>45.66</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>30954</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>鍍鋅鋼捲47.67%、烤漆鋼捲22.58%、其他8.24%、線材6.84%、軋硬鋼捲6.33%、鋼管4.94%、買賣1.04%、冷軋鋼捲0.94%、鋼結構0.77%、天車0.33%、代工鋼捲0.25%、軋延鋼捲0.04%、酸洗鋼捲0.01% (2023年)</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>燁輝-鋼鐵工業-上市</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>1476</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-01-17</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>530.0</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>10.79</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>-31</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>285691477.0</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>530.0</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>-0.56</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>儒鴻</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>紡織纖維</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>36.56</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>22.79</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>32.06</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>144317</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>成衣62.27%、針織布37.73% (2023年)</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>儒鴻-紡織纖維-上市</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>1473</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-01-17</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>35.9</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>61037566.0</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>35.9</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>台南</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>紡織纖維</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>27.23</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>12.49</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>12.17</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>32.06</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>5123</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>成衣(自製)99.94%、原物料0.06% (2023年)</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>台南-紡織纖維-上市</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>1321</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025-01-17</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>36.2</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>13.84</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>-14</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>78159085.0</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>36.2</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>大洋</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>塑膠工業</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>27.98</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>49.31</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>54.99</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>8067</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>塑膠原料62.77%、塑膠布17.14%、塑膠建材16.81%、合成皮2.32%、塑膠皮0.96% (2023年)</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>大洋-塑膠工業-上市</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>1312</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-01-17</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1.8</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>85376442.0</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>國喬</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>塑膠工業</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>29.99</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>54.99</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>12339</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>苯乙烯(SM)49.08%、塑膠產品(ABS, HIPS)23.28%、廣告視訊頻道10.54%、尼龍7.14%、包裝材料5.18%、電力2.11%、其他1.23%、H2 1.00%、蒸汽供應0.43% (2023年)</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>國喬-塑膠工業-上市</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>1303</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025-01-17</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>32.95</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>59.06</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>2497016758.0</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>32.95</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>南亞</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>塑膠工業</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>44.97</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>80.88</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>54.99</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>256562</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>印刷電路板(PCB)16.27%、其他15.67%、聚酯纖維15.29%、銅箔基板(CCL)9.70%、環氧樹脂8.98%、乙二醇(EG)4.59%、銅箔4.50%、丙二酚(BPA)4.49%、可塑劑(DOP)及硬化劑3.46%、硬質管2.63%、硬質膠布2.35%、軟質膠布1.98%、塑膠門窗1.97%、麩酸酐(PA)1.63%、丁二醇(BDO)1.28%、玻璃纖維布1.27%、聚酯薄膜1.25%、膠乳皮0.96%、BOPP膜0.62%、PU合成皮(人造皮)0.62%、玻璃纖維絲0.50% (2023年)</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>南亞-塑膠工業-上市</t>
         </is>
       </c>
     </row>

--- a/check1.xlsx
+++ b/check1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y28"/>
+  <dimension ref="A1:Y23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,32 +563,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>8482</t>
+          <t>9939</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>7.88</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>108.5</t>
+          <t>158.5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>99.98</t>
+          <t>72.93</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -598,32 +598,32 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>191</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>293106680.0</t>
+          <t>361855032.0</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>108.5</t>
+          <t>158.5</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>6.9</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -633,12 +633,12 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>商億-KY</t>
+          <t>宏全</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>居家生活</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -648,74 +648,74 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>32.36</t>
+          <t>61.92</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>9.12</t>
+          <t>27.43</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>35.91</t>
+          <t>15.66</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>14.9</t>
+          <t>37.26</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>11497</t>
+          <t>45995</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>室內家具90.84%、其他9.16% (2023年)</t>
+          <t>PET瓶35.76%、飲料填充類28.03%、塑膠蓋22.54%、菸酒包材類3.24%、飲料充填-TR及TBA2.99%、標籤2.94%、鋁蓋2.23%、爪蓋1.13%、薄膜與電子包材0.66%、其他0.49% (2023年)</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>商億-KY-居家生活-上市</t>
+          <t>宏全-其他-上市</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>8464</t>
+          <t>8936</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>-0.38</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>443.0</t>
+          <t>53.5</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>40.42</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -725,12 +725,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>30</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>-6</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -740,17 +740,17 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>215549273.0</t>
+          <t>137559.0</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>443.0</t>
+          <t>53.5</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -760,89 +760,89 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>億豐</t>
+          <t>國統</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>居家生活</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>86.83</t>
+          <t>23.86</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>26.82</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>20.69</t>
+          <t>17.1</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>14.9</t>
+          <t>179.68</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>132152</t>
+          <t>13322</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>窗簾95.99%、其他4.01% (2023年)</t>
+          <t>工程承攬59.59%、延性鑄鐵管17.41%、其他8.66%、營運和維護6.56%、海淡水2.88%、鋼製另件1.88%、鋼管直管1.63%、DIP另件0.56%、壓圈0.39%、短管0.21%、套管0.16%、彎管0.07% (2023年)</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>億豐-居家生活-上市</t>
+          <t>國統-其他-上櫃</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>7703</t>
+          <t>8482</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>156.5</t>
+          <t>109.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>15.43</t>
+          <t>42.5</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -852,12 +852,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>66</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>80</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -867,17 +867,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>56875.0</t>
+          <t>81825219.0</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>156.5</t>
+          <t>109.0</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -887,89 +887,89 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>銳澤</t>
+          <t>商億-KY</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>居家生活</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>46.79</t>
+          <t>32.36</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>14.83</t>
+          <t>9.12</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>24.25</t>
+          <t>35.91</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>59.72</t>
+          <t>14.9</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>5611</t>
+          <t>11497</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>建造合同98.68%、設備銷售1.32% (2023年)</t>
+          <t>室內家具90.84%、其他9.16% (2023年)</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>銳澤-其他電子業-上櫃</t>
+          <t>商億-KY-居家生活-上市</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6988</t>
+          <t>6841</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>-2.49</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>29.2</t>
+          <t>82.3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>37.46</t>
+          <t>13.68</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -979,32 +979,32 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>251</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>33</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>10469300.0</t>
+          <t>24181.0</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>29.2</t>
+          <t>82.3</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>-2.49</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -1014,32 +1014,32 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>威力暘-創</t>
+          <t>長佳智能</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>汽車工業</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>29.2</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>16.85</t>
+          <t>19.02</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -1049,54 +1049,54 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>300.46</t>
+          <t>98.09</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>1435</t>
+          <t>8207</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>智慧醫療業務72.14%、生技27.86% (2023年)</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>威力暘-創-汽車工業-上市</t>
+          <t>長佳智能-生技醫療業-上櫃</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6841</t>
+          <t>6830</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>78.4</t>
+          <t>172.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.77</t>
+          <t>19.81</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>124</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>47</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1121,17 +1121,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>214108.0</t>
+          <t>2732163367.0</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>78.4</t>
+          <t>172.0</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>-0.58</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -1141,89 +1141,89 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>長佳智能</t>
+          <t>汎銓</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>其他電子業</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>19.02</t>
+          <t>60.36</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>11.08</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>75.89</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>98.09</t>
+          <t>34.29</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>8207</t>
+          <t>8880</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>智慧醫療業務72.14%、生技27.86% (2023年)</t>
+          <t>分析服務100.00% (2023年)</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>長佳智能-生技醫療業-上櫃</t>
+          <t>汎銓-其他電子業-上市</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6823</t>
+          <t>6613</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>8.46</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>69.0</t>
+          <t>241.0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>18.91</t>
+          <t>172.95</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1233,12 +1233,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>701</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>66</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1248,17 +1248,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>-16065.0</t>
+          <t>1250214.0</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>69.0</t>
+          <t>241.0</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>7.35</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1268,12 +1268,12 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>濾能</t>
+          <t>朋億*</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>其他電子業</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1283,74 +1283,74 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>21.87</t>
+          <t>58.71</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>36.9</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13.95</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>91.24</t>
+          <t>59.72</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>1483</t>
+          <t>16901</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>AMC化學濾網及配件72.71%、其他27.29% (2023年)</t>
+          <t>高科技產業製程供應系統設備62.20%、高科技產業製程供應系統設備34.63%、其他3.17% (2023年)</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>濾能-半導體業-上櫃</t>
+          <t>朋億*-其他電子業-上櫃</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6768</t>
+          <t>6016</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>126.0</t>
+          <t>14.1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>-50.0</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>11.92</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1360,12 +1360,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>93</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>-55</t>
+          <t>17</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1375,17 +1375,17 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>-259257173.0</t>
+          <t>2110.0</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>126.0</t>
+          <t>14.1</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>-1.95</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1395,89 +1395,89 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>志強-KY</t>
+          <t>康和證</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>運動休閒</t>
+          <t>金融業</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>8.16</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>73.06</t>
+          <t>15.47</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>21.89</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>18.93</t>
+          <t>9.59</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>27.19</t>
+          <t>14.13</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>24604</t>
+          <t>8801</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>運動鞋74.75%、休閒鞋24.00%、其他1.25% (2023年)</t>
+          <t>股利收入47.68%、經紀手續費45.01%、營業證券透過損益按公允價值11.50%、利息收入10.22%、營業證券出售損益8.68%、其他營業收入2.11%、借券1.28%、承銷業務0.96%、股務代理0.83% (2023年)</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>志強-KY-運動休閒-上市</t>
+          <t>康和證-金融業-上櫃</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6649</t>
+          <t>5706</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>35.6</t>
+          <t>67.7</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>9.34</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1487,12 +1487,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>33</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>42</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1502,17 +1502,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>3385.0</t>
+          <t>833302710.0</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>35.6</t>
+          <t>67.7</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1522,79 +1522,79 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>台生材</t>
+          <t>鳳凰</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>觀光事業</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>14.87</t>
+          <t>20.61</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>10.45</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17.64</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>98.09</t>
+          <t>37.55</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>1504</t>
+          <t>5465</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>腦中風血栓負壓移除導管系統67.60%、委託開發29.12%、泡沫式人工腦膜產品2.35%、醫療器材產品試製服務0.93% (2023年)</t>
+          <t>國外旅遊團體-歐洲線51.35%、國外旅遊團體-東北亞線11.55%、國外旅遊團體-美洲線7.40%、國外旅遊團體-紐澳線7.21%、國外旅遊團體-郵輪線6.89%、國外旅遊團體-亞洲線6.87%、其他6.36%、國民旅遊1.82%、國外旅遊團體-大陸線0.55% (2023年)</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>台生材-生技醫療業-上櫃</t>
+          <t>鳳凰-觀光事業-上市</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6613</t>
+          <t>5234</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>7.78</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>202.0</t>
+          <t>225.5</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1604,7 +1604,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>13.03</t>
+          <t>28.29</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1614,12 +1614,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>289</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1629,17 +1629,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>111426.0</t>
+          <t>1547709368.0</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>202.0</t>
+          <t>225.5</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>-0.49</t>
+          <t>6.37</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1649,89 +1649,89 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>朋億*</t>
+          <t>達興材料</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>4.68</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>58.71</t>
+          <t>30.22</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>36.9</t>
+          <t>10.45</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>13.95</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>59.72</t>
+          <t>61.7</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>16901</t>
+          <t>21467</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>高科技產業製程供應系統設備62.20%、高科技產業製程供應系統設備34.63%、其他3.17% (2023年)</t>
+          <t>顯示器材料93.05%、半導體材料及關鍵原材料6.95% (2023年)</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>朋億*-其他電子業-上櫃</t>
+          <t>達興材料-光電業-上市</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6589</t>
+          <t>4527</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>81.2</t>
+          <t>49.8</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>14.79</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1741,12 +1741,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>54</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>-43</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1756,17 +1756,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>156479.0</t>
+          <t>50491.0</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>81.2</t>
+          <t>49.8</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1776,12 +1776,12 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>台康生技</t>
+          <t>方方土霖</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>電機機械</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1791,74 +1791,74 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>30.83</t>
+          <t>22.15</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>12.42</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10.8</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>98.09</t>
+          <t>41.51</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>24774</t>
+          <t>3701</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>勞務59.26%、商品銷售26.91%、授權合作開發13.83% (2023年)</t>
+          <t>冰水機組50.11%、其他49.89% (2023年)</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>台康生技-生技醫療業-上櫃</t>
+          <t>方方土霖-電機機械-上櫃</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6237</t>
+          <t>3086</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-2.04</t>
+          <t>-1.64</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>58.3</t>
+          <t>183.0</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>20.32</t>
+          <t>49.04</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1868,12 +1868,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>506</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>63</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1883,17 +1883,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>769726.0</t>
+          <t>-8165.0</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>58.3</t>
+          <t>183.0</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>-0.85</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1903,12 +1903,12 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>驊訊</t>
+          <t>華義</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>文化創意業</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -1918,74 +1918,74 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>13.03</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>170.64</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>91.24</t>
+          <t>51.81</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>4771</t>
+          <t>4831</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>IC概念產品100.00% (2023年)</t>
+          <t>美術設計代工83.64%、線上遊戲及數位內容16.36% (2023年)</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>驊訊-半導體業-上櫃</t>
+          <t>華義-文化創意業-上櫃</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>5276</t>
+          <t>2739</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>20.2</t>
+          <t>53.9</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1995,12 +1995,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>14</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>-61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2010,17 +2010,17 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>-1510.0</t>
+          <t>209618146.0</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>20.2</t>
+          <t>53.9</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -2030,89 +2030,89 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>達輝-KY</t>
+          <t>寒舍</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>觀光事業</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>12.79</t>
+          <t>16.52</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>6.14</t>
+          <t>12.31</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>96.19</t>
+          <t>8.36</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>179.68</t>
+          <t>37.55</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>798</t>
+          <t>4942</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>摩托車53.31%、嬰幼童及其他產品類46.69% (2023年)</t>
+          <t>餐飲58.56%、飯店客房38.94%、其他2.50% (2023年)</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>達輝-KY-其他-上櫃</t>
+          <t>寒舍-觀光事業-上市</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4915</t>
+          <t>2516</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>80.9</t>
+          <t>18.45</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>20.21</t>
+          <t>21.73</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -2122,12 +2122,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>54</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>66</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2137,17 +2137,17 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>768450694.0</t>
+          <t>164832086.0</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>80.9</t>
+          <t>18.45</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -2157,12 +2157,12 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>致伸</t>
+          <t>新建</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>建材營造</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -2172,74 +2172,74 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>38.96</t>
+          <t>7.43</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>34.35</t>
+          <t>10.21</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>14.58</t>
+          <t>31.23</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>30.84</t>
+          <t>28.23</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>37539</t>
+          <t>4028</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>非電腦週邊產品61.21%、電腦周邊產品36.86%、服務收入1.93% (2023年)</t>
+          <t>土木工程62.51%、建築工程37.45%、其他0.04% (2023年)</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>致伸-電子零組件業-上市</t>
+          <t>新建-建材營造-上市</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4442</t>
+          <t>2472</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>6.94</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>102.5</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>26.6</t>
+          <t>93.09</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -2249,32 +2249,32 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>532</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>52</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>7028.0</t>
+          <t>8559054542.0</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>102.5</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -2284,89 +2284,89 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>竣邦-KY</t>
+          <t>立隆電</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>紡織纖維</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>20.38</t>
+          <t>47.27</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>9.33</t>
+          <t>16.95</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>20.6</t>
+          <t>14.79</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>23.37</t>
+          <t>30.84</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>1417</t>
+          <t>15765</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>平織布85.35%、針織布8.40%、其他5.18%、不織布產品1.08% (2023年)</t>
+          <t>鋁質電解電容器62.55%、化成鋁箔25.98%、電蝕鋁箔11.34%、鋁箔加工0.13% (2023年)</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>竣邦-KY-紡織纖維-上櫃</t>
+          <t>立隆電-電子零組件業-上市</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4130</t>
+          <t>2428</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-0.4</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>25.2</t>
+          <t>164.5</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>38.3</t>
+          <t>46.88</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -2376,32 +2376,32 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>455</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>39</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>137974.0</t>
+          <t>358042456.0</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>25.2</t>
+          <t>164.5</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -2411,89 +2411,89 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>健亞</t>
+          <t>興勤</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>13.24</t>
+          <t>78.86</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>15.43</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>169.29</t>
+          <t>13.55</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>98.09</t>
+          <t>30.84</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>2670</t>
+          <t>20498</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>藥品製造98.23%、技術服務0.87%、其他0.82%、代理0.07% (2023年)</t>
+          <t>保護元件95.37%、其他4.63% (2023年)</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>健亞-生技醫療業-上櫃</t>
+          <t>興勤-電子零組件業-上市</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3713</t>
+          <t>2395</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>22.7</t>
+          <t>367.0</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>8.58</t>
+          <t>23.86</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -2503,12 +2503,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>58</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>-27</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -2518,17 +2518,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>3920.0</t>
+          <t>1027354469.0</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>22.7</t>
+          <t>367.0</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -2538,89 +2538,89 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>新晶投控</t>
+          <t>研華</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>綠能環保</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>8.02</t>
+          <t>56.17</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>17.32</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>36.48</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>65.88</t>
+          <t>68.43</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>1792</t>
+          <t>315584</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>發電廠工程總承包(EPC)60.49%、太陽能電池模組23.44%、電力11.09%、其他4.98% (2023年)</t>
+          <t>嵌入式板卡暨系統產品53.71%、工業電腦及工業控制35.48%、售後服務及其他10.80% (2023年)</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>新晶投控-綠能環保-上櫃</t>
+          <t>研華-電腦及週邊設備業-上市</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3454</t>
+          <t>2301</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-4.3</t>
+          <t>-0.93</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>124.0</t>
+          <t>107.0</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>20.1</t>
+          <t>6.09</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -2630,12 +2630,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2645,17 +2645,17 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>877549598.0</t>
+          <t>39537123.0</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>124.0</t>
+          <t>107.0</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>-3.12</t>
+          <t>-0.93</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -2665,12 +2665,12 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>晶睿</t>
+          <t>光寶科</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -2680,89 +2680,89 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>38.72</t>
+          <t>37.38</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>21.87</t>
+          <t>15.99</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>56.04</t>
+          <t>20.11</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>61.7</t>
+          <t>68.43</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>11643</t>
+          <t>253503</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>網路攝影機85.22%、其他8.39%、網路影音錄影機6.39% (2023年)</t>
+          <t>資訊及消費性電子44.39%、雲端及物聯網34.99%、光電通訊20.62% (2023年)</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>晶睿-光電業-上市</t>
+          <t>光寶科-電腦及週邊設備業-上市</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3008</t>
+          <t>2027</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-1.09</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2730.0</t>
+          <t>33.9</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>-50.0</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>26.05</t>
+          <t>30.69</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>227</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>-21</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -2772,17 +2772,17 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>4400645730.0</t>
+          <t>584361713.0</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2730.0</t>
+          <t>33.9</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>-1.09</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -2792,12 +2792,12 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>大立光</t>
+          <t>大成鋼</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>鋼鐵工業</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -2807,74 +2807,74 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>1,305.77</t>
+          <t>29.94</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>141.98</t>
+          <t>10.14</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>16.56</t>
+          <t>25.98</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>61.7</t>
+          <t>45.66</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>367704</t>
+          <t>80939</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>光學元件98.89%、其他1.11% (2023年)</t>
+          <t>鋁製品39.13%、不�袗�產品35.72%、螺絲及螺帽22.45%、窗飾及其他產品2.69% (2023年)</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>大立光-光電業-上市</t>
+          <t>大成鋼-鋼鐵工業-上市</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3005</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-2.1</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>116.5</t>
+          <t>8.84</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>7.99</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -2884,32 +2884,32 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>89</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>340599548.0</t>
+          <t>21600365.0</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>116.5</t>
+          <t>8.84</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>-2.1</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -2919,12 +2919,12 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>神基</t>
+          <t>聚亨</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>鋼鐵工業</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -2934,74 +2934,74 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>36.80</t>
+          <t>10.50</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>14.85</t>
+          <t>5.83</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>16.93</t>
+          <t>146.17</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>68.43</t>
+          <t>45.66</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>71979</t>
+          <t>2957</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>電子元器件52.18%、機構件38.99%、航太扣件8.83% (2023年)</t>
+          <t>螺絲37.55%、盤元27.67%、線材22.35%、鋼筋7.61%、加工業務2.59%、其他2.22% (2023年)</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>神基-電腦及週邊設備業-上市</t>
+          <t>聚亨-鋼鐵工業-上市</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2498</t>
+          <t>1713</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>5.36</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>49.5</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>67.75</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -3011,32 +3011,32 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>-6</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>3506214386.0</t>
+          <t>10936829.0</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>49.5</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>5.98</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -3046,12 +3046,12 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>宏達電</t>
+          <t>國化</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>通信網路業</t>
+          <t>化學工業</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -3061,74 +3061,74 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>26.37</t>
+          <t>21.45</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14.71</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>39.1</t>
+          <t>29.4</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>46292</t>
+          <t>7374</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>虛擬實境及5G,智慧型手機和100.00% (2023年)</t>
+          <t>保險粉, 氧化鋅, 吊白塊及重100.00% (2023年)</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>宏達電-通信網路業-上市</t>
+          <t>國化-化學工業-上市</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>1442</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>-0.92</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>32.5</t>
+          <t>83.2</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>19.27</t>
+          <t>21.42</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -3138,12 +3138,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>-24</t>
+          <t>-19</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -3153,17 +3153,17 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>252309841.0</t>
+          <t>621246318.0</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>32.5</t>
+          <t>83.2</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>-0.31</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -3173,12 +3173,12 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>大成鋼</t>
+          <t>名軒</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>鋼鐵工業</t>
+          <t>建材營造</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -3188,74 +3188,74 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>29.94</t>
+          <t>22.01</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>10.14</t>
+          <t>6.72</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>25.98</t>
+          <t>8.31</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>45.66</t>
+          <t>28.23</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>80939</t>
+          <t>30029</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>鋁製品39.13%、不�袗�產品35.72%、螺絲及螺帽22.45%、窗飾及其他產品2.69% (2023年)</t>
+          <t>建設業務99.78%、其他0.22% (2023年)</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>大成鋼-鋼鐵工業-上市</t>
+          <t>名軒-建材營造-上市</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>1321</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>15.45</t>
+          <t>35.6</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>24.94</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -3265,32 +3265,32 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>159721932.0</t>
+          <t>24304009.0</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>15.45</t>
+          <t>35.6</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>-0.97</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -3300,12 +3300,12 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>燁輝</t>
+          <t>大洋</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>鋼鐵工業</t>
+          <t>塑膠工業</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
@@ -3315,677 +3315,42 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>14.56</t>
+          <t>27.98</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>8.44</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>49.31</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>45.66</t>
+          <t>54.99</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>30954</t>
+          <t>8067</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>鍍鋅鋼捲47.67%、烤漆鋼捲22.58%、其他8.24%、線材6.84%、軋硬鋼捲6.33%、鋼管4.94%、買賣1.04%、冷軋鋼捲0.94%、鋼結構0.77%、天車0.33%、代工鋼捲0.25%、軋延鋼捲0.04%、酸洗鋼捲0.01% (2023年)</t>
+          <t>塑膠原料62.77%、塑膠布17.14%、塑膠建材16.81%、合成皮2.32%、塑膠皮0.96% (2023年)</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>燁輝-鋼鐵工業-上市</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>1476</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2025-01-17</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>530.0</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>65.0</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>10.79</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>均線:上漲趨勢</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>-31</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>285691477.0</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>530.0</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>-0.56</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>儒鴻</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>紡織纖維</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>98.62</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>36.56</t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>22.79</t>
-        </is>
-      </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>32.06</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>144317</t>
-        </is>
-      </c>
-      <c r="X24" t="inlineStr">
-        <is>
-          <t>成衣62.27%、針織布37.73% (2023年)</t>
-        </is>
-      </c>
-      <c r="Y24" t="inlineStr">
-        <is>
-          <t>儒鴻-紡織纖維-上市</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>1473</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2025-01-17</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>35.9</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>65.0</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>均線:上漲趨勢</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>61037566.0</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>35.9</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>台南</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>紡織纖維</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>27.23</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>12.49</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>12.17</t>
-        </is>
-      </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>32.06</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>5123</t>
-        </is>
-      </c>
-      <c r="X25" t="inlineStr">
-        <is>
-          <t>成衣(自製)99.94%、原物料0.06% (2023年)</t>
-        </is>
-      </c>
-      <c r="Y25" t="inlineStr">
-        <is>
-          <t>台南-紡織纖維-上市</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>1321</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2025-01-17</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>36.2</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>13.84</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>均線:上漲趨勢</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>263</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>78159085.0</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>36.2</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>大洋</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>塑膠工業</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>27.98</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>49.31</t>
-        </is>
-      </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>54.99</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>8067</t>
-        </is>
-      </c>
-      <c r="X26" t="inlineStr">
-        <is>
-          <t>塑膠原料62.77%、塑膠布17.14%、塑膠建材16.81%、合成皮2.32%、塑膠皮0.96% (2023年)</t>
-        </is>
-      </c>
-      <c r="Y26" t="inlineStr">
-        <is>
           <t>大洋-塑膠工業-上市</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>1312</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2025-01-17</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>1.8</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>11.15</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>21.66</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>均線:上漲趨勢</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>85376442.0</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>11.15</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>國喬</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>塑膠工業</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>29.99</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>54.99</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>12339</t>
-        </is>
-      </c>
-      <c r="X27" t="inlineStr">
-        <is>
-          <t>苯乙烯(SM)49.08%、塑膠產品(ABS, HIPS)23.28%、廣告視訊頻道10.54%、尼龍7.14%、包裝材料5.18%、電力2.11%、其他1.23%、H2 1.00%、蒸汽供應0.43% (2023年)</t>
-        </is>
-      </c>
-      <c r="Y27" t="inlineStr">
-        <is>
-          <t>國喬-塑膠工業-上市</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>1303</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2025-01-17</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>32.95</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>59.06</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>均線:上漲趨勢</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>2497016758.0</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>32.95</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>5.61</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>南亞</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>塑膠工業</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>44.97</t>
-        </is>
-      </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>8.38</t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>80.88</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>54.99</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>256562</t>
-        </is>
-      </c>
-      <c r="X28" t="inlineStr">
-        <is>
-          <t>印刷電路板(PCB)16.27%、其他15.67%、聚酯纖維15.29%、銅箔基板(CCL)9.70%、環氧樹脂8.98%、乙二醇(EG)4.59%、銅箔4.50%、丙二酚(BPA)4.49%、可塑劑(DOP)及硬化劑3.46%、硬質管2.63%、硬質膠布2.35%、軟質膠布1.98%、塑膠門窗1.97%、麩酸酐(PA)1.63%、丁二醇(BDO)1.28%、玻璃纖維布1.27%、聚酯薄膜1.25%、膠乳皮0.96%、BOPP膜0.62%、PU合成皮(人造皮)0.62%、玻璃纖維絲0.50% (2023年)</t>
-        </is>
-      </c>
-      <c r="Y28" t="inlineStr">
-        <is>
-          <t>南亞-塑膠工業-上市</t>
         </is>
       </c>
     </row>

--- a/check1.xlsx
+++ b/check1.xlsx
@@ -583,7 +583,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -618,17 +618,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>158.5</t>
+          <t>161.5</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -745,17 +745,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>53.5</t>
+          <t>53.6</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -872,17 +872,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>109.0</t>
+          <t>99.6</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>-9.04</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-8.62</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -964,7 +964,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>-50.0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -999,17 +999,17 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>82.3</t>
+          <t>81.0</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>-2.49</t>
+          <t>-1.46</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-1.58</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1126,17 +1126,17 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>172.0</t>
+          <t>170.5</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>-0.58</t>
+          <t>-2.01</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1253,17 +1253,17 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>241.0</t>
+          <t>260.0</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>7.35</t>
+          <t>6.12</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>7.88</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1380,17 +1380,17 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>14.1</t>
+          <t>14.15</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1507,17 +1507,17 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>67.7</t>
+          <t>68.5</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1634,17 +1634,17 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>225.5</t>
+          <t>225.0</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>6.37</t>
+          <t>-0.22</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.22</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1761,17 +1761,17 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>49.8</t>
+          <t>48.4</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>-3.39</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-2.81</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1888,17 +1888,17 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>183.0</t>
+          <t>182.0</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>-0.55</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.55</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -2015,17 +2015,17 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>53.9</t>
+          <t>54.1</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -2142,17 +2142,17 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>18.45</t>
+          <t>17.1</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>-8.31</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-7.32</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -2274,7 +2274,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>-1.44</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -2396,17 +2396,17 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>164.5</t>
+          <t>164.0</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>-1.2</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.30</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -2523,17 +2523,17 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>367.0</t>
+          <t>379.0</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -2615,7 +2615,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -2650,17 +2650,17 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>107.0</t>
+          <t>109.0</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>-0.93</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -2777,17 +2777,17 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>33.9</t>
+          <t>34.05</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>-1.02</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -2904,17 +2904,17 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>8.84</t>
+          <t>8.86</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.34</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -2996,7 +2996,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -3031,17 +3031,17 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -3158,17 +3158,17 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>83.2</t>
+          <t>82.2</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>-1.2</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-1.20</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -3285,17 +3285,17 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>35.6</t>
+          <t>35.65</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>-0.97</t>
+          <t>-0.7</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">

--- a/check1.xlsx
+++ b/check1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y23"/>
+  <dimension ref="A1:AC50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,124 +471,144 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>短交易量o</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>遠交易量o</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>短交易量</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>遠交易量</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>highlight</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>highlight_date</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>量增</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>now_price</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>change_quote</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>diff_quote</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Type0</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Type1</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Type2</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>殖利率</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>每股淨值(元)</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>每股營收(元)</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>本益比</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>同業平均本益比</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>總市值</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>營收比重</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Volume_Price_Change_sum</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>now_price</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>change_quote</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>diff_quote</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Type0</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Type1</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Type2</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>殖利率</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>每股淨值(元)</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>每股營收(元)</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>本益比</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>同業平均本益比</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>總市值</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>營收比重</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Type</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>9939</t>
+          <t>9802</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>158.5</t>
+          <t>140.5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>72.93</t>
+          <t>40.76</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -598,124 +618,144 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>150</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>361855032.0</t>
+          <t>22</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>161.5</t>
+          <t>True</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>2025-01-20 00:00:00</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>True</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>宏全</t>
+          <t>140.5</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>鈺齊-KY</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>運動休閒</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>61.92</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>27.43</t>
-        </is>
-      </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>15.66</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>37.26</t>
+          <t>68.36</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>45995</t>
+          <t>18.91</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>PET瓶35.76%、飲料填充類28.03%、塑膠蓋22.54%、菸酒包材類3.24%、飲料充填-TR及TBA2.99%、標籤2.94%、鋁蓋2.23%、爪蓋1.13%、薄膜與電子包材0.66%、其他0.49% (2023年)</t>
+          <t>31.29</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>宏全-其他-上市</t>
+          <t>27.8</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>28239</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>鞋99.51%、其他0.49% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>鈺齊-KY-運動休閒-上市</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>557579852.0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>8936</t>
+          <t>8927</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-0.38</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>53.5</t>
+          <t>58.6</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>31.23</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -725,251 +765,291 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>104.0</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>162</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>137559.0</t>
+          <t>14</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>53.6</t>
+          <t>True</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>2025-01-14 00:00:00</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>True</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>國統</t>
+          <t>58.6</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>5.97</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>北基</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>油電燃氣業</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>23.86</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
-      </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>17.1</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>179.68</t>
+          <t>15.63</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>13322</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>工程承攬59.59%、延性鑄鐵管17.41%、其他8.66%、營運和維護6.56%、海淡水2.88%、鋼製另件1.88%、鋼管直管1.63%、DIP另件0.56%、壓圈0.39%、短管0.21%、套管0.16%、彎管0.07% (2023年)</t>
+          <t>40.98</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>國統-其他-上櫃</t>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>21642</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>無鉛汽油52.63%、高級柴油20.42%、無鉛汽油10.87%、無鉛汽油5.77%、其他5.26%、洗車1.53%、儲能產品1.26%、客房及餐飲0.99%、電動巴士0.66%、副油品0.54%、車輛檢查0.08% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>北基-油電燃氣業-上櫃</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>290355.0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>8482</t>
+          <t>8291</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>9.57</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>109.0</t>
+          <t>7.52</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>41.0</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>28.0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>81825219.0</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>99.6</t>
-        </is>
-      </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>-9.04</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>-8.62</t>
+          <t>False</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>商億-KY</t>
+          <t>7.52</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>居家生活</t>
+          <t>7.43</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>尚茂</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>32.36</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>9.12</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>35.91</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>14.9</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>11497</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>室內家具90.84%、其他9.16% (2023年)</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>商億-KY-居家生活-上市</t>
+          <t>59.87</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>487</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>銅箔基板(CCL)93.71%、黏合膠片6.29% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>尚茂-電子零組件業-上櫃</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>247.0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6841</t>
+          <t>8093</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-2.49</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>82.3</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-50.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>13.68</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -979,241 +1059,281 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>28.0</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>381</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>24181.0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>81.0</t>
+          <t>True</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>-1.46</t>
+          <t>2025-01-07 00:00:00</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>-1.58</t>
+          <t>True</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>長佳智能</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>保銳</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>19.02</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
         <is>
           <t>0.89</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="X5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>98.09</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>8207</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>智慧醫療業務72.14%、生技27.86% (2023年)</t>
-        </is>
-      </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>長佳智能-生技醫療業-上櫃</t>
+          <t>59.87</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>1341</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>電源供應器48.86%、其他44.45%、電腦機殼6.69% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>保銳-電子零組件業-上櫃</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>8537.0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6830</t>
+          <t>8067</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>172.0</t>
+          <t>17.75</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>19.81</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>均線:無明顯趨勢</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>2732163367.0</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>170.5</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>-2.01</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>-0.87</t>
-        </is>
-      </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>汎銓</t>
+          <t>17.75</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>6.93</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>志旭</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>60.36</t>
+          <t>電子通路業</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>11.08</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>75.89</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>34.29</t>
+          <t>8.22</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>8880</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>分析服務100.00% (2023年)</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>汎銓-其他電子業-上市</t>
+          <t>58.75</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>367</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>美妝產品84.98%、儲存媒體12.08%、多媒體2.84%、家電生活週邊0.10% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>志旭-電子通路業-上櫃</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>118.0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6613</t>
+          <t>7722</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>8.46</t>
+          <t>5.99</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>241.0</t>
+          <t>743.0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1223,7 +1343,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>172.95</t>
+          <t>33.31</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1233,251 +1353,291 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>743.0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>LINEPAY</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>數位雲端</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
           <t>701</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>1250214.0</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>260.0</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>6.12</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>7.88</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>朋億*</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>其他電子業</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>58.71</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>36.9</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>13.95</t>
-        </is>
-      </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>59.72</t>
+          <t>98.64</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>16901</t>
+          <t>26.58</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>高科技產業製程供應系統設備62.20%、高科技產業製程供應系統設備34.63%、其他3.17% (2023年)</t>
+          <t>72.35</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>朋億*-其他電子業-上櫃</t>
+          <t>36.07</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>50524</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>手續費80.65%、金融推廣合作11.55%、其他4.12%、系統管理服務3.69% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>LINEPAY-數位雲端-上市</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>643370547.0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6016</t>
+          <t>6994</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>97.7</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>34.73</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>均線:無明顯趨勢</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>14.1</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>-50.0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>均線:上漲趨勢</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>93</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>2110.0</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>14.15</t>
-        </is>
-      </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>False</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>康和證</t>
+          <t>97.7</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>金融業</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>8.16</t>
+          <t>富威電力</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>15.47</t>
+          <t>綠能環保</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>9.59</t>
+          <t>92</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>14.13</t>
+          <t>15.86</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>8801</t>
+          <t>6.54</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>股利收入47.68%、經紀手續費45.01%、營業證券透過損益按公允價值11.50%、利息收入10.22%、營業證券出售損益8.68%、其他營業收入2.11%、借券1.28%、承銷業務0.96%、股務代理0.83% (2023年)</t>
+          <t>82.8</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>康和證-金融業-上櫃</t>
+          <t>28.47</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>6888</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>電力68.45%、工程25.68%、服務收入5.87% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>富威電力-綠能環保-上市</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>62652605.0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>5706</t>
+          <t>6890</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>67.7</t>
+          <t>495.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>9.34</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1487,114 +1647,134 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>77.0</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>31.0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>2025-01-13 00:00:00</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>833302710.0</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>68.5</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>鳳凰</t>
+          <t>495.0</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>觀光事業</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>來億-KY</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>運動休閒</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>20.61</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>10.45</t>
-        </is>
-      </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>17.64</t>
+          <t>480</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>37.55</t>
+          <t>92.54</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>5465</t>
+          <t>37.29</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>國外旅遊團體-歐洲線51.35%、國外旅遊團體-東北亞線11.55%、國外旅遊團體-美洲線7.40%、國外旅遊團體-紐澳線7.21%、國外旅遊團體-郵輪線6.89%、國外旅遊團體-亞洲線6.87%、其他6.36%、國民旅遊1.82%、國外旅遊團體-大陸線0.55% (2023年)</t>
+          <t>89.51</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>鳳凰-觀光事業-上市</t>
+          <t>27.8</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>123453</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>運動鞋73.13%、休閒鞋26.85%、其他0.03% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>來億-KY-運動休閒-上市</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>432573012.0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>5234</t>
+          <t>6856</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>7.78</t>
+          <t>9.92</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>225.5</t>
+          <t>68.5</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1604,134 +1784,154 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>28.29</t>
+          <t>18.21</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>均線:無明顯趨勢</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>1547709368.0</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>225.0</t>
-        </is>
-      </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>2025-01-22 00:00:00</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>False</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>達興材料</t>
+          <t>68.5</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>鑫傳</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>30.22</t>
+          <t>文化創意業</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>10.45</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>5.57</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>61.7</t>
+          <t>27.09</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>21467</t>
+          <t>6.48</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>顯示器材料93.05%、半導體材料及關鍵原材料6.95% (2023年)</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>達興材料-光電業-上市</t>
+          <t>52.03</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>1932</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>廣告46.94%、商品銷售28.12%、節目製作24.68%、其他0.26% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>鑫傳-文化創意業-上櫃</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>3778.0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4527</t>
+          <t>6757</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>49.8</t>
+          <t>89.6</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>29.93</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1741,251 +1941,291 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>50491.0</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>48.4</t>
-        </is>
-      </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>-3.39</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>-2.81</t>
+          <t>True</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>方方土霖</t>
+          <t>89.6</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>電機機械</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>台灣虎航</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>22.15</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>12.42</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>10.8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>41.51</t>
+          <t>14.93</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>3701</t>
+          <t>9.85</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>冰水機組50.11%、其他49.89% (2023年)</t>
+          <t>13.6</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>方方土霖-電機機械-上櫃</t>
+          <t>20.94</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>41174</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>客運97.15%、其他營業收入2.43%、貨物運輸0.42% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>台灣虎航-航運業-上市</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>1183036378.0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3086</t>
+          <t>6655</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-1.64</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>183.0</t>
+          <t>130.0</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>49.04</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>均線:無明顯趨勢</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>506</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>-8165.0</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>182.0</t>
-        </is>
-      </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>-0.55</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>-0.55</t>
+          <t>True</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>華義</t>
+          <t>130.0</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>文化創意業</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>科定</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>13.03</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>170.64</t>
+          <t>6.92</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>51.81</t>
+          <t>29.37</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>4831</t>
+          <t>8.73</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>美術設計代工83.64%、線上遊戲及數位內容16.36% (2023年)</t>
+          <t>27.66</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>華義-文化創意業-上櫃</t>
+          <t>37.55</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>10684</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>塗裝木皮板50.47%、環保批批板43.63%、科定系統櫃2.33%、KD木地板2.12%、其他1.44% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>科定-其他-上市</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>552127.0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2739</t>
+          <t>6613</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>7.76</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>53.9</t>
+          <t>260.0</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1995,124 +2235,144 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>231.0</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>86.0</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>624</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>209618146.0</t>
+          <t>86</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>54.1</t>
+          <t>True</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>2025-01-13 00:00:00</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>True</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>寒舍</t>
+          <t>260.0</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>觀光事業</t>
+          <t>6.12</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>朋億*</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>16.52</t>
+          <t>其他電子業</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>12.31</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>8.36</t>
+          <t>4</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>37.55</t>
+          <t>58.71</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>4942</t>
+          <t>36.9</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>餐飲58.56%、飯店客房38.94%、其他2.50% (2023年)</t>
+          <t>16.34</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>寒舍-觀光事業-上市</t>
+          <t>59.92</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>19794</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>高科技產業製程供應系統設備62.20%、高科技產業製程供應系統設備34.63%、其他3.17% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>朋億*-其他電子業-上櫃</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>2271312.0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2516</t>
+          <t>6569</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>18.45</t>
+          <t>163.0</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>21.73</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -2122,124 +2382,144 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>41.0</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>36.0</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>85</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>164832086.0</t>
+          <t>36</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>17.1</t>
+          <t>True</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>-8.31</t>
+          <t>2024-12-26 00:00:00</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>-7.32</t>
+          <t>True</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>新建</t>
+          <t>163.0</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>建材營造</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>醫揚</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>7.43</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>10.21</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>31.23</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>28.23</t>
+          <t>38.25</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>4028</t>
+          <t>7.35</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>土木工程62.51%、建築工程37.45%、其他0.04% (2023年)</t>
+          <t>34.53</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>新建-建材營造-上市</t>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>6295</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>醫療用電腦及其配件98.54%、其他1.46% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>醫揚-生技醫療業-上櫃</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>15972.0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2472</t>
+          <t>6568</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>6.94</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>102.5</t>
+          <t>154.0</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>93.09</t>
+          <t>56.68</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -2249,124 +2529,144 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>532</t>
+          <t>137.0</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>120.0</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>8559054542.0</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>102.5</t>
-        </is>
-      </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>-1.44</t>
+          <t>2025-01-08 00:00:00</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>True</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>立隆電</t>
+          <t>154.0</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>宏觀</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>47.27</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>16.95</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>14.79</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>30.84</t>
+          <t>47.34</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>15765</t>
+          <t>9.39</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>鋁質電解電容器62.55%、化成鋁箔25.98%、電蝕鋁箔11.34%、鋁箔加工0.13% (2023年)</t>
+          <t>64.71</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>立隆電-電子零組件業-上市</t>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>4776</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>射頻晶片91.93%、委託設計服務8.07% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>宏觀-半導體業-上櫃</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>212848.0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2428</t>
+          <t>6558</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>164.5</t>
+          <t>59.5</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>46.88</t>
+          <t>78.82</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -2376,124 +2676,144 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>80.0</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>358042456.0</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>164.0</t>
-        </is>
-      </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>-1.2</t>
+          <t>2025-01-09 00:00:00</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>-0.30</t>
+          <t>True</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>興勤</t>
+          <t>59.5</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>興能高</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>其他電子業</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>78.86</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>15.43</t>
-        </is>
-      </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>13.55</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>30.84</t>
+          <t>15.99</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>20498</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>保護元件95.37%、其他4.63% (2023年)</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>興勤-電子零組件業-上市</t>
+          <t>34.56</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>5144</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>電池組93.08%、電池芯6.92% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>興能高-其他電子業-上市</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>15467217058.0</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2395</t>
+          <t>6438</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>367.0</t>
+          <t>224.0</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>23.86</t>
+          <t>32.52</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -2503,124 +2823,144 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>-27</t>
+          <t>-5.0</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>2025-01-20 00:00:00</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>1027354469.0</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>379.0</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>研華</t>
+          <t>224.0</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>迅得</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>其他電子業</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>56.17</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>17.32</t>
-        </is>
-      </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>36.48</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>68.43</t>
+          <t>55.07</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>315584</t>
+          <t>17.46</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>嵌入式板卡暨系統產品53.71%、工業電腦及工業控制35.48%、售後服務及其他10.80% (2023年)</t>
+          <t>44.18</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>研華-電腦及週邊設備業-上市</t>
+          <t>34.56</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>16863</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>印刷電路板自動化設備70.61%、半導體自動化設備25.54%、液晶面板自動化設備3.85% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>迅得-其他電子業-上市</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>2795613092.0</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2301</t>
+          <t>6290</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-0.93</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>107.0</t>
+          <t>78.0</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>6.09</t>
+          <t>7.07</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -2630,495 +2970,575 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>23.0</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>179</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>39537123.0</t>
+          <t>23</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>109.0</t>
+          <t>True</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>2025-01-22 00:00:00</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>True</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>光寶科</t>
+          <t>78.0</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>良維</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>37.38</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>15.99</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>20.11</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>68.43</t>
+          <t>39.19</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>253503</t>
+          <t>13.57</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>資訊及消費性電子44.39%、雲端及物聯網34.99%、光電通訊20.62% (2023年)</t>
+          <t>17.22</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>光寶科-電腦及週邊設備業-上市</t>
+          <t>59.87</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>12382</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>電源傳輸線組82.40%、訊號傳輸線組8.82%、電源, 訊號傳輸及車用線材6.68%、充電器轉接頭與一體式充電器2.07%、其他0.03% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>良維-電子零組件業-上櫃</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>315954.0</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>6207</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>6.51</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>33.9</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-50.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>30.69</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>114.0</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>37.0</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>2025-01-13 00:00:00</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>584361713.0</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>34.05</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>-1.02</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>大成鋼</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>鋼鐵工業</t>
+          <t>5.58</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>雷科</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>29.94</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>10.14</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>25.98</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>45.66</t>
+          <t>24.11</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>80939</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>鋁製品39.13%、不�袗�產品35.72%、螺絲及螺帽22.45%、窗飾及其他產品2.69% (2023年)</t>
+          <t>28.4</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>大成鋼-鋼鐵工業-上市</t>
+          <t>59.87</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>4526</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>SMT與雷射設備60.68%、捲裝材料38.32%、其他1.00% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>雷科-電子零組件業-上櫃</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>75308.0</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>6191</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>6.03</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>8.84</t>
+          <t>66.9</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>7.99</t>
+          <t>26.36</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>均線:無明顯趨勢</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>21600365.0</t>
+          <t>117</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>8.86</t>
+          <t>False</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>False</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>聚亨</t>
+          <t>66.9</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>鋼鐵工業</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>精成科</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>10.50</t>
-        </is>
-      </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>5.83</t>
-        </is>
-      </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>146.17</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>45.66</t>
+          <t>46.46</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>2957</t>
+          <t>12.43</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>螺絲37.55%、盤元27.67%、線材22.35%、鋼筋7.61%、加工業務2.59%、其他2.22% (2023年)</t>
+          <t>10.37</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>聚亨-鋼鐵工業-上市</t>
+          <t>31.19</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>31731</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>印刷電路板(PCB)70.10%、EMS29.90% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>精成科-電子零組件業-上市</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>1433803704.0</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1713</t>
+          <t>6190</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>34.9</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
+          <t>-6.0</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
           <t>-6</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>10936829.0</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>False</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>國化</t>
+          <t>34.9</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>化學工業</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>萬泰科</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>21.45</t>
+          <t>通信網路業</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>14.71</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>29.4</t>
+          <t>18.47</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>7374</t>
+          <t>13.76</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>保險粉, 氧化鋅, 吊白塊及重100.00% (2023年)</t>
+          <t>16.78</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>國化-化學工業-上市</t>
+          <t>112.76</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>5712</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>網路線34.42%、電子線26.19%、其他18.13%、汽車及機車線10.28%、灌溉線6.89%、電腦線及高溫線2.27%、電源線1.82% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>萬泰科-通信網路業-上櫃</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>75426.0</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1442</t>
+          <t>6175</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>83.2</t>
+          <t>43.6</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -3128,7 +3548,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>21.42</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -3138,219 +3558,4228 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
+          <t>186.0</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>1203</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>-19</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>621246318.0</t>
-        </is>
-      </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>82.2</t>
+          <t>True</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>-1.2</t>
+          <t>2025-01-22 00:00:00</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>-1.20</t>
+          <t>True</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>名軒</t>
+          <t>43.6</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>建材營造</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>立敦</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>22.01</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>6.72</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>8.31</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>28.23</t>
+          <t>25.23</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>30029</t>
+          <t>7.54</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>建設業務99.78%、其他0.22% (2023年)</t>
+          <t>15.97</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>名軒-建材營造-上市</t>
+          <t>59.87</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>6565</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>化成鋁箔71.92%、電蝕鋁箔27.77%、鋁箔加工0.31% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>立敦-電子零組件業-上櫃</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>1206926.0</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1321</t>
+          <t>6139</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>35.6</t>
+          <t>250.0</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>24.94</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>2024-12-31 00:00:00</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>250.0</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>亞翔</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>其他電子業</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>57.00</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>70.44</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>14.09</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>34.56</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>58251</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>其他72.12%、無塵室工程20.22%、機電工程4.32%、製程管路工程3.35% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>亞翔-其他電子業-上市</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>3839446142.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>6104</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>175.0</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>20.47</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>2025-01-20 00:00:00</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>175.0</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>創惟</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>半導體業</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>81.4</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>15869</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>積體電路(IC)晶片99.63%、其他0.37% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>創惟-半導體業-上櫃</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>-233231.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>4979</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>242.5</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>74.31</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>2025-01-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>242.5</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>華星光</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>通信網路業</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>22.52</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>63.65</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>112.76</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>34154</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>光通訊主動元件模組92.50%、晶粒4.58%、其他2.92% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>華星光-通信網路業-上櫃</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>22500425.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>4977</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>147.5</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>62.76</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>均線:橫盤震盪</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>147.5</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>眾達-KY</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>通信網路業</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>49.33</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>148.99</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>40.14</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>11828</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>加強小型化可插拔光收發器(SF56.62%、四通道小型化可插拔光收發器39.59%、光器件收發組件(OSA)3.28%、小型化可插拔光收發器(SFP)0.51% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>眾達-KY-通信網路業-上市</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>7499575323.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>4916</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>17.43</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>2025-01-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>事欣科</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>19.95</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>68.69</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>3246</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>航太及國防工業75.60%、博奕及工業電腦24.40% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>事欣科-電腦及週邊設備業-上市</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>183473960.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>4903</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>37.9</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>29.98</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>174.0</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>2025-01-20 00:00:00</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>37.9</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>聯光通</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>通信網路業</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>39.48</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>112.76</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>3993</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>系統工程及服務61.79%、光纖電纜及配合材料34.74%、其他3.22%、數據產品傳輸設備0.25% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>聯光通-通信網路業-上櫃</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>962748.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>4737</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>66.7</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>-40.0</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>70.28</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>均線:橫盤震盪</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>761</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>2025-01-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>66.7</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>華廣</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>生技醫療業</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>30.16</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>32.55</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>4071</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>血糖檢測試片69.75%、其他18.19%、血糖檢測儀套件12.06% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>華廣-生技醫療業-上市</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>35769724.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>4161</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>34.55</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>34.3</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
         <is>
           <t>均線:上漲趨勢</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>2025-01-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>34.55</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>聿新科</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>生技醫療業</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>16.42</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>18.38</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>1829</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>居家醫療檢測試紙59.22%、生醫保養品及代工32.79%、居家醫療檢測儀器7.88%、其他0.11% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>聿新科-生技醫療業-上櫃</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>20778.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>3710</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>13.1</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>42.9</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>357</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>2025-01-17 00:00:00</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>13.1</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>連展投控</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>59.87</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>3763</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>其他38.97%、電腦產品32.74%、通訊產品28.29% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>連展投控-電子零組件業-上櫃</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>197220.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>3665</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>637.0</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>29.36</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>均線:橫盤震盪</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>-2.0</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>-11.0</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>637.0</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>貿聯-KY</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>其他電子業</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>181.28</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>77.75</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>34.89</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>34.56</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>116819</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>工業用38.88%、車用25.41%、資訊科技與數據傳播20.22%、電器用14.59%、其他0.89% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>貿聯-KY-其他電子業-上市</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>2392127693.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>3609</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>45.5</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>49.53</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>均線:橫盤震盪</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>45.5</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>三一東林</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>59.87</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>1605</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>LED Driver45.01%、成車43.58%、其他11.40% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>三一東林-電子零組件業-上櫃</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>57008.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>3605</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>62.7</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>77.32</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>194.0</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>745</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>2025-01-21 00:00:00</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>62.7</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>宏致</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>42.21</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>19.75</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>82.5</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>31.19</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>8896</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>連接器54.61%、金屬沖壓製品19.12%、連接線組18.61%、其他7.66% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>宏致-電子零組件業-上市</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>2433411209.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>3516</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>23.35</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>均線:橫盤震盪</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>-53.0</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>-7.0</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>23.35</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>亞帝歐</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>25.67</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>97.29</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>96.61</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>1391</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>照明燈具49.65%、連接線48.51%、塑膠射出1.25%、能源電力0.60% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>亞帝歐-光電業-上櫃</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>1220.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>3491</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>453.0</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>79.94</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>2025-01-03 00:00:00</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>453.0</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>昇達科</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>通信網路業</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>40.78</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>10.02</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>67.31</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>112.76</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>28930</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>微波及毫米波49.15%、射頻產品32.07%、通訊網路工程服務18.79% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>昇達科-通信網路業-上櫃</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>7322770.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>3297</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>22.65</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>均線:橫盤震盪</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>2025-01-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>22.65</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>杭特</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>15.78</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>96.61</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>817</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>網路攝影機100.00% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>杭特-光電業-上櫃</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>15143.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>3284</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>35.8</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>2025-01-08 00:00:00</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>35.8</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>太普高</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>13.66</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>13.11</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>183.9</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>3308</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>印刷版材67.70%、不動產代銷21.57%、其他10.73% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>太普高-其他-上櫃</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>12153.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>3264</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>68.9</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>65.48</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>2024-12-19 00:00:00</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>68.9</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>欣銓</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>半導體業</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>37.80</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>14.95</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>33773</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>晶圓測試73.30%、成品測試26.27%、其他0.43% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>欣銓-半導體業-上櫃</t>
+        </is>
+      </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>2515998.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>3211</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>204.5</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>28.16</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>均線:橫盤震盪</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>-5.0</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>24304009.0</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>35.65</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>-0.7</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>大洋</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>塑膠工業</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>204.5</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>順達</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>2.7</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>68.32</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>23.59</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>11.13</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>27.14</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>31186</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>鋰電池組99.83%、其他0.17% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>順達-電腦及週邊設備業-上櫃</t>
+        </is>
+      </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>6053876.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>3163</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>3.3</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>169.5</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>54.33</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>2024-12-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>169.5</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>1.8</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>波若威</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>通信網路業</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>33.20</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>37.75</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>112.76</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>13652</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>光纖連接產品(OIN Product)49.92%、光能量分合產品22.24%、光波長分合產品21.23%、光能量放大產品6.33%、其他0.28% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>波若威-通信網路業-上櫃</t>
+        </is>
+      </c>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>7920315.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>3018</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>28.9</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>-9.0</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>-12.0</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>-12</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>28.9</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>隆銘綠能</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>其他電子業</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>27.98</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>49.31</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>54.99</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>8067</t>
-        </is>
-      </c>
-      <c r="X23" t="inlineStr">
-        <is>
-          <t>塑膠原料62.77%、塑膠布17.14%、塑膠建材16.81%、合成皮2.32%、塑膠皮0.96% (2023年)</t>
-        </is>
-      </c>
-      <c r="Y23" t="inlineStr">
-        <is>
-          <t>大洋-塑膠工業-上市</t>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>10.10</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>34.56</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>1129</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>機電系統整合工程70.22%、營建工程29.61%、商品銷售0.17% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>隆銘綠能-其他電子業-上市</t>
+        </is>
+      </c>
+      <c r="AC42" t="inlineStr">
+        <is>
+          <t>3200224.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>3005</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>119.5</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>2024-12-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>119.5</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>神基</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>36.80</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>14.85</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>17.29</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>68.69</t>
+        </is>
+      </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>73517</t>
+        </is>
+      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>電子元器件52.18%、機構件38.99%、航太扣件8.83% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>神基-電腦及週邊設備業-上市</t>
+        </is>
+      </c>
+      <c r="AC43" t="inlineStr">
+        <is>
+          <t>765320369.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2924</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>30.8</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>26.02</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>均線:無明顯趨勢</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>2025-01-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>30.8</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>宏太-KY</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>居家生活</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>10.57</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>1603</t>
+        </is>
+      </c>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>嬰幼兒產品100.00% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>宏太-KY-居家生活-上櫃</t>
+        </is>
+      </c>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>246.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2498</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>59.2</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>2025-01-20 00:00:00</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>59.2</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>宏達電</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>通信網路業</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>26.37</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>40.14</t>
+        </is>
+      </c>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>49289</t>
+        </is>
+      </c>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>虛擬實境及5G,智慧型手機和100.00% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>宏達電-通信網路業-上市</t>
+        </is>
+      </c>
+      <c r="AC45" t="inlineStr">
+        <is>
+          <t>16618070150.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2466</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>6.2</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>57.66</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>均線:橫盤震盪</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>冠西電</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>10.90</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>2.6</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>60.87</t>
+        </is>
+      </c>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>13717</t>
+        </is>
+      </c>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>裝飾燈53.97%、光電元件39.45%、節淨蒸汽4.52%、貿易及通路2.06% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>冠西電-光電業-上市</t>
+        </is>
+      </c>
+      <c r="AC46" t="inlineStr">
+        <is>
+          <t>377767767.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2308</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>437.5</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>14.94</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>437.5</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>台達電</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>84.15</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>43.2</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>30.7</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>31.19</t>
+        </is>
+      </c>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>1136425</t>
+        </is>
+      </c>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>電源及零組件63.68%、基礎設施23.28%、自動化業務13.02%、其他0.02% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>台達電-電子零組件業-上市</t>
+        </is>
+      </c>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>3564327251.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2250</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>129.5</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>39.19</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>-8.0</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>129.5</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>IKKA-KY</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>汽車工業</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>61.48</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>30.4</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>20.56</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>141.64</t>
+        </is>
+      </c>
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>4075</t>
+        </is>
+      </c>
+      <c r="AA48" t="inlineStr">
+        <is>
+          <t>汽車類64.38%、衛浴家電類16.80%、其他15.15%、辦公設備3.67% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>IKKA-KY-汽車工業-上市</t>
+        </is>
+      </c>
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>680293811.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>1736</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>189.5</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>均線:橫盤震盪</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>-2.0</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>189.5</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>喬山</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>運動休閒</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>34.12</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>39.81</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>44.8</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>27.8</t>
+        </is>
+      </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>57493</t>
+        </is>
+      </c>
+      <c r="AA49" t="inlineStr">
+        <is>
+          <t>電動跑步機41.46%、重量訓練器33.23%、橢圓機6.85%、踏步機5.64%、其他5.26%、健身車4.95%、斜躺式健身車1.81%、划船機0.82% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>喬山-運動休閒-上市</t>
+        </is>
+      </c>
+      <c r="AC49" t="inlineStr">
+        <is>
+          <t>-4986928.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>1598</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>31.45</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>78.9</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>2024-12-30 00:00:00</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>31.45</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>岱宇</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>運動休閒</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>26.97</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>27.8</t>
+        </is>
+      </c>
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>5257</t>
+        </is>
+      </c>
+      <c r="AA50" t="inlineStr">
+        <is>
+          <t>電動跑步機52.33%、其他16.86%、橢圓機14.11%、健身車9.40%、家具7.30% (2023年)</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>岱宇-運動休閒-上市</t>
+        </is>
+      </c>
+      <c r="AC50" t="inlineStr">
+        <is>
+          <t>44836511.0</t>
         </is>
       </c>
     </row>
